--- a/medicine/Sexualité et sexologie/Denis_Sonet/Denis_Sonet.xlsx
+++ b/medicine/Sexualité et sexologie/Denis_Sonet/Denis_Sonet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denis Sonet, né le 3 avril 1926 à Plancher-les-Mines et mort le 23 septembre 2015 à Saint-André-les-Vergers, est un prêtre catholique, aumônier puis formateur de conseillers conjugaux et d’éducateurs au Centre de liaison des équipes de recherche (Cler) depuis 1969 et auteur de nombreuses conférences où il reprend les thèmes de ses ouvrages sur la vie sexuelle et affective[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denis Sonet, né le 3 avril 1926 à Plancher-les-Mines et mort le 23 septembre 2015 à Saint-André-les-Vergers, est un prêtre catholique, aumônier puis formateur de conseillers conjugaux et d’éducateurs au Centre de liaison des équipes de recherche (Cler) depuis 1969 et auteur de nombreuses conférences où il reprend les thèmes de ses ouvrages sur la vie sexuelle et affective.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denis Sonet nait à Plancher-les-Mines (Haute-Saône)[2]'[3], le 3 avril 1926[4].
-Il entre au petit séminaire à l'âge de onze ans, d'abord au séminaire de Besançon, puis à celui de La Rochelle du fait d'une calcification osseuse. Ordonné prêtre pour l'archidiocèse de Besançon en 1951, il demande à rejoindre le diocèse de Troyes afin de pouvoir y être curé de campagne[5].
-Sollicité par les couples de la Jeunesse agricole catholique, il se fait former par le père Alphonse d'Heilly aux réalités de la vie et de la spiritualité conjugale[6]. Il est ensuite formateur de conseillers conjugaux et d’éducateurs[7] au Centre de liaison des équipes de recherche (Cler) depuis 1969[8],[9].
-Depuis 1958, il sillonne la France où il donne des conférences dans lesquelles il reprend les thèmes de ses ouvrages, notamment les quatre piliers pour qu'un couple dure : la sexualité, la tendresse, la communication et un projet commun[10].
-Il meurt le 23 septembre 2015[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denis Sonet nait à Plancher-les-Mines (Haute-Saône)', le 3 avril 1926.
+Il entre au petit séminaire à l'âge de onze ans, d'abord au séminaire de Besançon, puis à celui de La Rochelle du fait d'une calcification osseuse. Ordonné prêtre pour l'archidiocèse de Besançon en 1951, il demande à rejoindre le diocèse de Troyes afin de pouvoir y être curé de campagne.
+Sollicité par les couples de la Jeunesse agricole catholique, il se fait former par le père Alphonse d'Heilly aux réalités de la vie et de la spiritualité conjugale. Il est ensuite formateur de conseillers conjugaux et d’éducateurs au Centre de liaison des équipes de recherche (Cler) depuis 1969,.
+Depuis 1958, il sillonne la France où il donne des conférences dans lesquelles il reprend les thèmes de ses ouvrages, notamment les quatre piliers pour qu'un couple dure : la sexualité, la tendresse, la communication et un projet commun.
+Il meurt le 23 septembre 2015.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le père Denis Sonet a été aumônier, puis formateur de conseillers conjugaux au CLER Amour et Famille[12]'[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le père Denis Sonet a été aumônier, puis formateur de conseillers conjugaux au CLER Amour et Famille'.
 Le Fiat de Joseph
 « On s'est plu à souligner — et on avait raison — combien le plan de salut de Dieu était suspendu au « oui » de Marie. Dieu ne fait jamais rien pour l'homme sans l'homme. Le fiat de Marie a toujours inspiré à l'humanité une reconnaissance infinie envers celle qui a accepté d'être la Mère du Sauveur. Mais on a tendance à oublier que Joseph lui aussi a été partie prenante de la grande aventure de la Rédemption. Sans être comme le oui de Marie une condition sine qua non, le oui de Joseph au plan de Dieu était capital : Joseph était chargé d'insérer Jésus dans l'authentique filiation de David. Autrement dit, Joseph n'a pas joué qu'un rôle de paravent, un cache-mystère de la virginité de Marie. Il n'a pas été que le « père la soupe », chargé de nourrir une femme et un enfant. Sur la grande scène du salut de l'humanité, il n'a pas eu qu'un petit rôle, disparaissant assez vite de l'histoire, une fois son texte débité. Et s'il est déclaré juste, c'est aussi parce qu'il a accepté la mission importante que Dieu lui a donnée : « Ne crains pas de prendre Marie, ton épouse » (cf. Mt 1, 18-24). Une mission d'époux, une mission de père ! »
 — Denis Sonet. L'Évangile au présent, Paris, Droguet et Ardent, 2004, p. 34.</t>
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ouvrages
-1990 : Découvrons l'amour, pour ne pas aimer idiot, édition Droguet et Ardant
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1990 : Découvrons l'amour, pour ne pas aimer idiot, édition Droguet et Ardant
 1993 : Éduquons nos parents, éditions Fates  (ISBN 9782909452012)
 1997 : L'éternité, c'est tout de suite, Cerf jeunesse  (ISBN 9782204056144)
 1997 : Il n'y a qu'un seul amour, Droguet et Ardant  (ISBN 9782704104048)
@@ -611,9 +632,43 @@
 2012 : Mon célibat, j'en fais quoi ?, éditions Le Livre Ouvert  (ISBN 9782915614480)
 En collaboration
 2007 : Ce Dieu, dont le couple est l'image, éditions Le Livre Ouvert, avec Bernard Debelle et Virginie de Tinguy  (ISBN 9782915614183)
-2009 : Qui nous montrera le bonheur ? 8 thèmes pour les jeunes des aumôneries et des mouvements chrétiens, éditions Tardy, avec le CLER et Armelle Nollet  (ISBN 9782710505259)
-DVD
-Bonne Nouvelle pour la sexualité (DVD), 2008, (ASIN B0025WUH9K)
+2009 : Qui nous montrera le bonheur ? 8 thèmes pour les jeunes des aumôneries et des mouvements chrétiens, éditions Tardy, avec le CLER et Armelle Nollet  (ISBN 9782710505259)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Denis_Sonet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Sonet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DVD</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bonne Nouvelle pour la sexualité (DVD), 2008, (ASIN B0025WUH9K)
 Vivre en couple aujourd'hui (DVD), 2008, (ASIN B001I1SEZS)
 À la découverte de l'amour (DVD), 2010, (ASIN B0025WUH9U)
 Être parents aujourd'hui (DVD), 2010, (ASIN B003XQ2LO6)
